--- a/data/audit/ba/ba_core.xlsx
+++ b/data/audit/ba/ba_core.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B599"/>
+  <dimension ref="A1:C599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>course</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>min_units</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -456,6 +461,9 @@
           <t>21-112</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -468,6 +476,9 @@
           <t>21-120</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -480,6 +491,9 @@
           <t>21-256</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -492,6 +506,9 @@
           <t>21-259</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -504,6 +521,9 @@
           <t>70-257</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -516,6 +536,9 @@
           <t>21-257</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -528,6 +551,9 @@
           <t>21-292</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -540,6 +566,9 @@
           <t>73-102</t>
         </is>
       </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -552,6 +581,9 @@
           <t>73-104</t>
         </is>
       </c>
+      <c r="C10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -564,6 +596,9 @@
           <t>73-103</t>
         </is>
       </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -576,6 +611,9 @@
           <t>73-230</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -588,6 +626,9 @@
           <t>73-240</t>
         </is>
       </c>
+      <c r="C13" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -600,6 +641,9 @@
           <t>70-207</t>
         </is>
       </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -612,6 +656,9 @@
           <t>36-200</t>
         </is>
       </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -624,6 +671,9 @@
           <t>70-208</t>
         </is>
       </c>
+      <c r="C16" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -636,6 +686,9 @@
           <t>36-202</t>
         </is>
       </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -648,6 +701,9 @@
           <t>70-106</t>
         </is>
       </c>
+      <c r="C18" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -660,6 +716,9 @@
           <t>70-110</t>
         </is>
       </c>
+      <c r="C19" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -672,6 +731,9 @@
           <t>70-122</t>
         </is>
       </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -684,6 +746,9 @@
           <t>70-311</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -696,6 +761,9 @@
           <t>70-332</t>
         </is>
       </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -708,6 +776,9 @@
           <t>70-340</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -720,6 +791,9 @@
           <t>70-345</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -732,6 +806,9 @@
           <t>70-371</t>
         </is>
       </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -744,6 +821,9 @@
           <t>70-381</t>
         </is>
       </c>
+      <c r="C26" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -756,6 +836,9 @@
           <t>70-391</t>
         </is>
       </c>
+      <c r="C27" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -768,6 +851,9 @@
           <t>70-104</t>
         </is>
       </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -780,6 +866,9 @@
           <t>70-204</t>
         </is>
       </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -792,6 +881,9 @@
           <t>70-304</t>
         </is>
       </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -804,6 +896,9 @@
           <t>70-401</t>
         </is>
       </c>
+      <c r="C31" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -816,6 +911,9 @@
           <t>70-447</t>
         </is>
       </c>
+      <c r="C32" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -828,6 +926,9 @@
           <t>70-424</t>
         </is>
       </c>
+      <c r="C33" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -840,6 +941,9 @@
           <t>70-422</t>
         </is>
       </c>
+      <c r="C34" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -852,6 +956,9 @@
           <t>70-427</t>
         </is>
       </c>
+      <c r="C35" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -864,6 +971,9 @@
           <t>70-428</t>
         </is>
       </c>
+      <c r="C36" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -876,6 +986,9 @@
           <t>70-498</t>
         </is>
       </c>
+      <c r="C37" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -888,6 +1001,9 @@
           <t>70-374</t>
         </is>
       </c>
+      <c r="C38" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -900,6 +1016,9 @@
           <t>70-467</t>
         </is>
       </c>
+      <c r="C39" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -912,6 +1031,9 @@
           <t>70-374</t>
         </is>
       </c>
+      <c r="C40" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -924,6 +1046,9 @@
           <t>70-387</t>
         </is>
       </c>
+      <c r="C41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -936,6 +1061,9 @@
           <t>70-455</t>
         </is>
       </c>
+      <c r="C42" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -948,6 +1076,9 @@
           <t>70-458</t>
         </is>
       </c>
+      <c r="C43" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -960,6 +1091,9 @@
           <t>70-460</t>
         </is>
       </c>
+      <c r="C44" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -972,6 +1106,9 @@
           <t>70-467</t>
         </is>
       </c>
+      <c r="C45" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -984,6 +1121,9 @@
           <t>70-469</t>
         </is>
       </c>
+      <c r="C46" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -996,6 +1136,9 @@
           <t>70-498</t>
         </is>
       </c>
+      <c r="C47" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1008,6 +1151,9 @@
           <t>73-366</t>
         </is>
       </c>
+      <c r="C48" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1020,6 +1166,9 @@
           <t>73-374</t>
         </is>
       </c>
+      <c r="C49" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1032,6 +1181,9 @@
           <t>70-415</t>
         </is>
       </c>
+      <c r="C50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1044,6 +1196,9 @@
           <t>70-416</t>
         </is>
       </c>
+      <c r="C51" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1056,6 +1211,9 @@
           <t>49-300</t>
         </is>
       </c>
+      <c r="C52" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1068,6 +1226,9 @@
           <t>70-395</t>
         </is>
       </c>
+      <c r="C53" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1080,6 +1241,9 @@
           <t>70-438</t>
         </is>
       </c>
+      <c r="C54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1092,6 +1256,9 @@
           <t>70-443</t>
         </is>
       </c>
+      <c r="C55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1104,6 +1271,9 @@
           <t>70-509</t>
         </is>
       </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1116,6 +1286,9 @@
           <t>70-492</t>
         </is>
       </c>
+      <c r="C57" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1128,6 +1301,9 @@
           <t>70-495</t>
         </is>
       </c>
+      <c r="C58" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1140,6 +1316,9 @@
           <t>70-337</t>
         </is>
       </c>
+      <c r="C59" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1152,6 +1331,9 @@
           <t>70-353</t>
         </is>
       </c>
+      <c r="C60" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1164,6 +1346,9 @@
           <t>70-398</t>
         </is>
       </c>
+      <c r="C61" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1176,6 +1361,9 @@
           <t>70-484</t>
         </is>
       </c>
+      <c r="C62" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1188,6 +1376,9 @@
           <t>70-490</t>
         </is>
       </c>
+      <c r="C63" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1200,6 +1391,9 @@
           <t>70-493</t>
         </is>
       </c>
+      <c r="C64" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1212,6 +1406,9 @@
           <t>70-497</t>
         </is>
       </c>
+      <c r="C65" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1224,6 +1421,9 @@
           <t>70-498</t>
         </is>
       </c>
+      <c r="C66" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1236,6 +1436,9 @@
           <t>73-338</t>
         </is>
       </c>
+      <c r="C67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1248,6 +1451,9 @@
           <t>73-265</t>
         </is>
       </c>
+      <c r="C68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1260,6 +1466,9 @@
           <t>73-347</t>
         </is>
       </c>
+      <c r="C69" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1272,6 +1481,9 @@
           <t>73-421</t>
         </is>
       </c>
+      <c r="C70" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1284,6 +1496,9 @@
           <t>70-398</t>
         </is>
       </c>
+      <c r="C71" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1296,6 +1511,9 @@
           <t>73-338</t>
         </is>
       </c>
+      <c r="C72" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1308,6 +1526,9 @@
           <t>73-341</t>
         </is>
       </c>
+      <c r="C73" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1320,6 +1541,9 @@
           <t>73-365</t>
         </is>
       </c>
+      <c r="C74" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1332,6 +1556,9 @@
           <t>73-366</t>
         </is>
       </c>
+      <c r="C75" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1344,6 +1571,9 @@
           <t>73-372</t>
         </is>
       </c>
+      <c r="C76" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1356,6 +1586,9 @@
           <t>73-427</t>
         </is>
       </c>
+      <c r="C77" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1368,6 +1601,9 @@
           <t>70-481</t>
         </is>
       </c>
+      <c r="C78" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1380,6 +1616,9 @@
           <t>70-385</t>
         </is>
       </c>
+      <c r="C79" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1392,6 +1631,9 @@
           <t>70-387</t>
         </is>
       </c>
+      <c r="C80" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1404,6 +1646,9 @@
           <t>70-443</t>
         </is>
       </c>
+      <c r="C81" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1416,6 +1661,9 @@
           <t>70-482</t>
         </is>
       </c>
+      <c r="C82" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1428,6 +1676,9 @@
           <t>70-483</t>
         </is>
       </c>
+      <c r="C83" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1440,6 +1691,9 @@
           <t>70-485</t>
         </is>
       </c>
+      <c r="C84" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1452,6 +1706,9 @@
           <t>70-460</t>
         </is>
       </c>
+      <c r="C85" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1464,6 +1721,9 @@
           <t>70-471</t>
         </is>
       </c>
+      <c r="C86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1476,6 +1736,9 @@
           <t>70-373</t>
         </is>
       </c>
+      <c r="C87" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1488,6 +1751,9 @@
           <t>70-422</t>
         </is>
       </c>
+      <c r="C88" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1500,6 +1766,9 @@
           <t>70-447</t>
         </is>
       </c>
+      <c r="C89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1512,6 +1781,9 @@
           <t>70-474</t>
         </is>
       </c>
+      <c r="C90" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1524,6 +1796,9 @@
           <t>70-476</t>
         </is>
       </c>
+      <c r="C91" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1536,6 +1811,9 @@
           <t>70-477</t>
         </is>
       </c>
+      <c r="C92" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1548,6 +1826,9 @@
           <t>70-493</t>
         </is>
       </c>
+      <c r="C93" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1560,6 +1841,9 @@
           <t>70-453</t>
         </is>
       </c>
+      <c r="C94" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1572,6 +1856,9 @@
           <t>70-462</t>
         </is>
       </c>
+      <c r="C95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1584,6 +1871,9 @@
           <t>70-437</t>
         </is>
       </c>
+      <c r="C96" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1596,6 +1886,9 @@
           <t>70-465</t>
         </is>
       </c>
+      <c r="C97" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1608,6 +1901,9 @@
           <t>70-341</t>
         </is>
       </c>
+      <c r="C98" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1620,6 +1916,9 @@
           <t>70-342</t>
         </is>
       </c>
+      <c r="C99" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1632,6 +1931,9 @@
           <t>70-385</t>
         </is>
       </c>
+      <c r="C100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1644,6 +1946,9 @@
           <t>70-387</t>
         </is>
       </c>
+      <c r="C101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1656,6 +1961,9 @@
           <t>70-424</t>
         </is>
       </c>
+      <c r="C102" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1668,6 +1976,9 @@
           <t>70-437</t>
         </is>
       </c>
+      <c r="C103" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1680,6 +1991,9 @@
           <t>70-440</t>
         </is>
       </c>
+      <c r="C104" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1692,6 +2006,9 @@
           <t>70-465</t>
         </is>
       </c>
+      <c r="C105" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1704,6 +2021,9 @@
           <t>21-270</t>
         </is>
       </c>
+      <c r="C106" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1716,6 +2036,9 @@
           <t>70-001</t>
         </is>
       </c>
+      <c r="C107" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1728,6 +2051,9 @@
           <t>70-002</t>
         </is>
       </c>
+      <c r="C108" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1740,6 +2066,9 @@
           <t>70-210</t>
         </is>
       </c>
+      <c r="C109" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1752,6 +2081,9 @@
           <t>70-211</t>
         </is>
       </c>
+      <c r="C110" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1764,6 +2096,9 @@
           <t>70-212</t>
         </is>
       </c>
+      <c r="C111" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1776,6 +2111,9 @@
           <t>70-213</t>
         </is>
       </c>
+      <c r="C112" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1788,6 +2126,9 @@
           <t>70-214</t>
         </is>
       </c>
+      <c r="C113" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1800,6 +2141,9 @@
           <t>70-215</t>
         </is>
       </c>
+      <c r="C114" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1812,6 +2156,9 @@
           <t>70-216</t>
         </is>
       </c>
+      <c r="C115" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1824,6 +2171,9 @@
           <t>70-217</t>
         </is>
       </c>
+      <c r="C116" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1836,6 +2186,9 @@
           <t>70-218</t>
         </is>
       </c>
+      <c r="C117" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1848,6 +2201,9 @@
           <t>70-219</t>
         </is>
       </c>
+      <c r="C118" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1860,6 +2216,9 @@
           <t>70-220</t>
         </is>
       </c>
+      <c r="C119" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1872,6 +2231,9 @@
           <t>70-221</t>
         </is>
       </c>
+      <c r="C120" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1884,6 +2246,9 @@
           <t>70-222</t>
         </is>
       </c>
+      <c r="C121" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1896,6 +2261,9 @@
           <t>70-223</t>
         </is>
       </c>
+      <c r="C122" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1908,6 +2276,9 @@
           <t>70-224</t>
         </is>
       </c>
+      <c r="C123" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1920,6 +2291,9 @@
           <t>70-225</t>
         </is>
       </c>
+      <c r="C124" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1932,6 +2306,9 @@
           <t>70-226</t>
         </is>
       </c>
+      <c r="C125" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1944,6 +2321,9 @@
           <t>70-227</t>
         </is>
       </c>
+      <c r="C126" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1956,6 +2336,9 @@
           <t>70-228</t>
         </is>
       </c>
+      <c r="C127" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1968,6 +2351,9 @@
           <t>70-229</t>
         </is>
       </c>
+      <c r="C128" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1980,6 +2366,9 @@
           <t>70-230</t>
         </is>
       </c>
+      <c r="C129" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1992,6 +2381,9 @@
           <t>70-231</t>
         </is>
       </c>
+      <c r="C130" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2004,6 +2396,9 @@
           <t>70-232</t>
         </is>
       </c>
+      <c r="C131" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2016,6 +2411,9 @@
           <t>70-233</t>
         </is>
       </c>
+      <c r="C132" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2028,6 +2426,9 @@
           <t>70-234</t>
         </is>
       </c>
+      <c r="C133" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2040,6 +2441,9 @@
           <t>70-235</t>
         </is>
       </c>
+      <c r="C134" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2052,6 +2456,9 @@
           <t>70-236</t>
         </is>
       </c>
+      <c r="C135" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2064,6 +2471,9 @@
           <t>70-237</t>
         </is>
       </c>
+      <c r="C136" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2076,6 +2486,9 @@
           <t>70-238</t>
         </is>
       </c>
+      <c r="C137" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2088,6 +2501,9 @@
           <t>70-239</t>
         </is>
       </c>
+      <c r="C138" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2100,6 +2516,9 @@
           <t>70-240</t>
         </is>
       </c>
+      <c r="C139" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2112,6 +2531,9 @@
           <t>70-241</t>
         </is>
       </c>
+      <c r="C140" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2124,6 +2546,9 @@
           <t>70-242</t>
         </is>
       </c>
+      <c r="C141" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2136,6 +2561,9 @@
           <t>70-243</t>
         </is>
       </c>
+      <c r="C142" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2148,6 +2576,9 @@
           <t>70-244</t>
         </is>
       </c>
+      <c r="C143" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2160,6 +2591,9 @@
           <t>70-245</t>
         </is>
       </c>
+      <c r="C144" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2172,6 +2606,9 @@
           <t>70-246</t>
         </is>
       </c>
+      <c r="C145" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2184,6 +2621,9 @@
           <t>70-247</t>
         </is>
       </c>
+      <c r="C146" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2196,6 +2636,9 @@
           <t>70-248</t>
         </is>
       </c>
+      <c r="C147" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2208,6 +2651,9 @@
           <t>70-249</t>
         </is>
       </c>
+      <c r="C148" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2220,6 +2666,9 @@
           <t>70-250</t>
         </is>
       </c>
+      <c r="C149" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2232,6 +2681,9 @@
           <t>70-251</t>
         </is>
       </c>
+      <c r="C150" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2244,6 +2696,9 @@
           <t>70-252</t>
         </is>
       </c>
+      <c r="C151" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2256,6 +2711,9 @@
           <t>70-253</t>
         </is>
       </c>
+      <c r="C152" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2268,6 +2726,9 @@
           <t>70-254</t>
         </is>
       </c>
+      <c r="C153" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2280,6 +2741,9 @@
           <t>70-255</t>
         </is>
       </c>
+      <c r="C154" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2292,6 +2756,9 @@
           <t>70-256</t>
         </is>
       </c>
+      <c r="C155" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2304,6 +2771,9 @@
           <t>70-257</t>
         </is>
       </c>
+      <c r="C156" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2316,6 +2786,9 @@
           <t>70-258</t>
         </is>
       </c>
+      <c r="C157" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2328,6 +2801,9 @@
           <t>70-259</t>
         </is>
       </c>
+      <c r="C158" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2340,6 +2816,9 @@
           <t>70-260</t>
         </is>
       </c>
+      <c r="C159" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2352,6 +2831,9 @@
           <t>70-261</t>
         </is>
       </c>
+      <c r="C160" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2364,6 +2846,9 @@
           <t>70-262</t>
         </is>
       </c>
+      <c r="C161" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2376,6 +2861,9 @@
           <t>70-263</t>
         </is>
       </c>
+      <c r="C162" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2388,6 +2876,9 @@
           <t>70-264</t>
         </is>
       </c>
+      <c r="C163" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2400,6 +2891,9 @@
           <t>70-265</t>
         </is>
       </c>
+      <c r="C164" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2412,6 +2906,9 @@
           <t>70-266</t>
         </is>
       </c>
+      <c r="C165" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2424,6 +2921,9 @@
           <t>70-267</t>
         </is>
       </c>
+      <c r="C166" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2436,6 +2936,9 @@
           <t>70-268</t>
         </is>
       </c>
+      <c r="C167" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2448,6 +2951,9 @@
           <t>70-269</t>
         </is>
       </c>
+      <c r="C168" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2460,6 +2966,9 @@
           <t>70-270</t>
         </is>
       </c>
+      <c r="C169" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2472,6 +2981,9 @@
           <t>70-271</t>
         </is>
       </c>
+      <c r="C170" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2484,6 +2996,9 @@
           <t>70-272</t>
         </is>
       </c>
+      <c r="C171" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2496,6 +3011,9 @@
           <t>70-273</t>
         </is>
       </c>
+      <c r="C172" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2508,6 +3026,9 @@
           <t>70-274</t>
         </is>
       </c>
+      <c r="C173" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -2520,6 +3041,9 @@
           <t>70-275</t>
         </is>
       </c>
+      <c r="C174" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -2532,6 +3056,9 @@
           <t>70-276</t>
         </is>
       </c>
+      <c r="C175" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -2544,6 +3071,9 @@
           <t>70-277</t>
         </is>
       </c>
+      <c r="C176" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -2556,6 +3086,9 @@
           <t>70-278</t>
         </is>
       </c>
+      <c r="C177" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -2568,6 +3101,9 @@
           <t>70-279</t>
         </is>
       </c>
+      <c r="C178" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -2580,6 +3116,9 @@
           <t>70-280</t>
         </is>
       </c>
+      <c r="C179" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -2592,6 +3131,9 @@
           <t>70-281</t>
         </is>
       </c>
+      <c r="C180" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -2604,6 +3146,9 @@
           <t>70-282</t>
         </is>
       </c>
+      <c r="C181" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -2616,6 +3161,9 @@
           <t>70-283</t>
         </is>
       </c>
+      <c r="C182" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -2628,6 +3176,9 @@
           <t>70-284</t>
         </is>
       </c>
+      <c r="C183" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -2640,6 +3191,9 @@
           <t>70-285</t>
         </is>
       </c>
+      <c r="C184" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -2652,6 +3206,9 @@
           <t>70-286</t>
         </is>
       </c>
+      <c r="C185" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -2664,6 +3221,9 @@
           <t>70-287</t>
         </is>
       </c>
+      <c r="C186" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -2676,6 +3236,9 @@
           <t>70-288</t>
         </is>
       </c>
+      <c r="C187" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -2688,6 +3251,9 @@
           <t>70-289</t>
         </is>
       </c>
+      <c r="C188" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -2700,6 +3266,9 @@
           <t>70-290</t>
         </is>
       </c>
+      <c r="C189" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -2712,6 +3281,9 @@
           <t>70-291</t>
         </is>
       </c>
+      <c r="C190" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -2724,6 +3296,9 @@
           <t>70-292</t>
         </is>
       </c>
+      <c r="C191" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -2736,6 +3311,9 @@
           <t>70-293</t>
         </is>
       </c>
+      <c r="C192" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -2748,6 +3326,9 @@
           <t>70-294</t>
         </is>
       </c>
+      <c r="C193" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -2760,6 +3341,9 @@
           <t>70-295</t>
         </is>
       </c>
+      <c r="C194" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -2772,6 +3356,9 @@
           <t>70-296</t>
         </is>
       </c>
+      <c r="C195" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -2784,6 +3371,9 @@
           <t>70-297</t>
         </is>
       </c>
+      <c r="C196" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -2796,6 +3386,9 @@
           <t>70-298</t>
         </is>
       </c>
+      <c r="C197" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -2808,6 +3401,9 @@
           <t>70-299</t>
         </is>
       </c>
+      <c r="C198" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -2820,6 +3416,9 @@
           <t>70-300</t>
         </is>
       </c>
+      <c r="C199" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -2832,6 +3431,9 @@
           <t>70-301</t>
         </is>
       </c>
+      <c r="C200" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -2844,6 +3446,9 @@
           <t>70-302</t>
         </is>
       </c>
+      <c r="C201" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -2856,6 +3461,9 @@
           <t>70-303</t>
         </is>
       </c>
+      <c r="C202" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -2868,6 +3476,9 @@
           <t>70-304</t>
         </is>
       </c>
+      <c r="C203" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -2880,6 +3491,9 @@
           <t>70-305</t>
         </is>
       </c>
+      <c r="C204" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -2892,6 +3506,9 @@
           <t>70-306</t>
         </is>
       </c>
+      <c r="C205" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -2904,6 +3521,9 @@
           <t>70-307</t>
         </is>
       </c>
+      <c r="C206" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -2916,6 +3536,9 @@
           <t>70-308</t>
         </is>
       </c>
+      <c r="C207" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -2928,6 +3551,9 @@
           <t>70-309</t>
         </is>
       </c>
+      <c r="C208" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -2940,6 +3566,9 @@
           <t>70-310</t>
         </is>
       </c>
+      <c r="C209" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -2952,6 +3581,9 @@
           <t>70-311</t>
         </is>
       </c>
+      <c r="C210" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -2964,6 +3596,9 @@
           <t>70-312</t>
         </is>
       </c>
+      <c r="C211" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -2976,6 +3611,9 @@
           <t>70-313</t>
         </is>
       </c>
+      <c r="C212" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -2988,6 +3626,9 @@
           <t>70-314</t>
         </is>
       </c>
+      <c r="C213" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3000,6 +3641,9 @@
           <t>70-315</t>
         </is>
       </c>
+      <c r="C214" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3012,6 +3656,9 @@
           <t>70-316</t>
         </is>
       </c>
+      <c r="C215" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3024,6 +3671,9 @@
           <t>70-317</t>
         </is>
       </c>
+      <c r="C216" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3036,6 +3686,9 @@
           <t>70-318</t>
         </is>
       </c>
+      <c r="C217" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3048,6 +3701,9 @@
           <t>70-319</t>
         </is>
       </c>
+      <c r="C218" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3060,6 +3716,9 @@
           <t>70-320</t>
         </is>
       </c>
+      <c r="C219" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3072,6 +3731,9 @@
           <t>70-321</t>
         </is>
       </c>
+      <c r="C220" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3084,6 +3746,9 @@
           <t>70-322</t>
         </is>
       </c>
+      <c r="C221" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3096,6 +3761,9 @@
           <t>70-323</t>
         </is>
       </c>
+      <c r="C222" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3108,6 +3776,9 @@
           <t>70-324</t>
         </is>
       </c>
+      <c r="C223" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3120,6 +3791,9 @@
           <t>70-325</t>
         </is>
       </c>
+      <c r="C224" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3132,6 +3806,9 @@
           <t>70-326</t>
         </is>
       </c>
+      <c r="C225" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3144,6 +3821,9 @@
           <t>70-327</t>
         </is>
       </c>
+      <c r="C226" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3156,6 +3836,9 @@
           <t>70-328</t>
         </is>
       </c>
+      <c r="C227" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -3168,6 +3851,9 @@
           <t>70-329</t>
         </is>
       </c>
+      <c r="C228" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3180,6 +3866,9 @@
           <t>70-330</t>
         </is>
       </c>
+      <c r="C229" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -3192,6 +3881,9 @@
           <t>70-331</t>
         </is>
       </c>
+      <c r="C230" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -3204,6 +3896,9 @@
           <t>70-332</t>
         </is>
       </c>
+      <c r="C231" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -3216,6 +3911,9 @@
           <t>70-333</t>
         </is>
       </c>
+      <c r="C232" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -3228,6 +3926,9 @@
           <t>70-334</t>
         </is>
       </c>
+      <c r="C233" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -3240,6 +3941,9 @@
           <t>70-335</t>
         </is>
       </c>
+      <c r="C234" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -3252,6 +3956,9 @@
           <t>70-336</t>
         </is>
       </c>
+      <c r="C235" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -3264,6 +3971,9 @@
           <t>70-337</t>
         </is>
       </c>
+      <c r="C236" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -3276,6 +3986,9 @@
           <t>70-338</t>
         </is>
       </c>
+      <c r="C237" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -3288,6 +4001,9 @@
           <t>70-339</t>
         </is>
       </c>
+      <c r="C238" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -3300,6 +4016,9 @@
           <t>70-340</t>
         </is>
       </c>
+      <c r="C239" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -3312,6 +4031,9 @@
           <t>70-341</t>
         </is>
       </c>
+      <c r="C240" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -3324,6 +4046,9 @@
           <t>70-342</t>
         </is>
       </c>
+      <c r="C241" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -3336,6 +4061,9 @@
           <t>70-343</t>
         </is>
       </c>
+      <c r="C242" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -3348,6 +4076,9 @@
           <t>70-344</t>
         </is>
       </c>
+      <c r="C243" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -3360,6 +4091,9 @@
           <t>70-345</t>
         </is>
       </c>
+      <c r="C244" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -3372,6 +4106,9 @@
           <t>70-346</t>
         </is>
       </c>
+      <c r="C245" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -3384,6 +4121,9 @@
           <t>70-347</t>
         </is>
       </c>
+      <c r="C246" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -3396,6 +4136,9 @@
           <t>70-348</t>
         </is>
       </c>
+      <c r="C247" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -3408,6 +4151,9 @@
           <t>70-349</t>
         </is>
       </c>
+      <c r="C248" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -3420,6 +4166,9 @@
           <t>70-350</t>
         </is>
       </c>
+      <c r="C249" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -3432,6 +4181,9 @@
           <t>70-351</t>
         </is>
       </c>
+      <c r="C250" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -3444,6 +4196,9 @@
           <t>70-352</t>
         </is>
       </c>
+      <c r="C251" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -3456,6 +4211,9 @@
           <t>70-353</t>
         </is>
       </c>
+      <c r="C252" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -3468,6 +4226,9 @@
           <t>70-354</t>
         </is>
       </c>
+      <c r="C253" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -3480,6 +4241,9 @@
           <t>70-355</t>
         </is>
       </c>
+      <c r="C254" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -3492,6 +4256,9 @@
           <t>70-356</t>
         </is>
       </c>
+      <c r="C255" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -3504,6 +4271,9 @@
           <t>70-357</t>
         </is>
       </c>
+      <c r="C256" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -3516,6 +4286,9 @@
           <t>70-358</t>
         </is>
       </c>
+      <c r="C257" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -3528,6 +4301,9 @@
           <t>70-359</t>
         </is>
       </c>
+      <c r="C258" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -3540,6 +4316,9 @@
           <t>70-360</t>
         </is>
       </c>
+      <c r="C259" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -3552,6 +4331,9 @@
           <t>70-361</t>
         </is>
       </c>
+      <c r="C260" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -3564,6 +4346,9 @@
           <t>70-362</t>
         </is>
       </c>
+      <c r="C261" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -3576,6 +4361,9 @@
           <t>70-363</t>
         </is>
       </c>
+      <c r="C262" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -3588,6 +4376,9 @@
           <t>70-364</t>
         </is>
       </c>
+      <c r="C263" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -3600,6 +4391,9 @@
           <t>70-365</t>
         </is>
       </c>
+      <c r="C264" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -3612,6 +4406,9 @@
           <t>70-366</t>
         </is>
       </c>
+      <c r="C265" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -3624,6 +4421,9 @@
           <t>70-367</t>
         </is>
       </c>
+      <c r="C266" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -3636,6 +4436,9 @@
           <t>70-368</t>
         </is>
       </c>
+      <c r="C267" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -3648,6 +4451,9 @@
           <t>70-369</t>
         </is>
       </c>
+      <c r="C268" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -3660,6 +4466,9 @@
           <t>70-370</t>
         </is>
       </c>
+      <c r="C269" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -3672,6 +4481,9 @@
           <t>70-371</t>
         </is>
       </c>
+      <c r="C270" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -3684,6 +4496,9 @@
           <t>70-372</t>
         </is>
       </c>
+      <c r="C271" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -3696,6 +4511,9 @@
           <t>70-373</t>
         </is>
       </c>
+      <c r="C272" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -3708,6 +4526,9 @@
           <t>70-374</t>
         </is>
       </c>
+      <c r="C273" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -3720,6 +4541,9 @@
           <t>70-375</t>
         </is>
       </c>
+      <c r="C274" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -3732,6 +4556,9 @@
           <t>70-376</t>
         </is>
       </c>
+      <c r="C275" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -3744,6 +4571,9 @@
           <t>70-377</t>
         </is>
       </c>
+      <c r="C276" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -3756,6 +4586,9 @@
           <t>70-378</t>
         </is>
       </c>
+      <c r="C277" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -3768,6 +4601,9 @@
           <t>70-379</t>
         </is>
       </c>
+      <c r="C278" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -3780,6 +4616,9 @@
           <t>70-380</t>
         </is>
       </c>
+      <c r="C279" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -3792,6 +4631,9 @@
           <t>70-381</t>
         </is>
       </c>
+      <c r="C280" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -3804,6 +4646,9 @@
           <t>70-382</t>
         </is>
       </c>
+      <c r="C281" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -3816,6 +4661,9 @@
           <t>70-383</t>
         </is>
       </c>
+      <c r="C282" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -3828,6 +4676,9 @@
           <t>70-384</t>
         </is>
       </c>
+      <c r="C283" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -3840,6 +4691,9 @@
           <t>70-385</t>
         </is>
       </c>
+      <c r="C284" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -3852,6 +4706,9 @@
           <t>70-386</t>
         </is>
       </c>
+      <c r="C285" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -3864,6 +4721,9 @@
           <t>70-387</t>
         </is>
       </c>
+      <c r="C286" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -3876,6 +4736,9 @@
           <t>70-388</t>
         </is>
       </c>
+      <c r="C287" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -3888,6 +4751,9 @@
           <t>70-389</t>
         </is>
       </c>
+      <c r="C288" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -3900,6 +4766,9 @@
           <t>70-390</t>
         </is>
       </c>
+      <c r="C289" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -3912,6 +4781,9 @@
           <t>70-391</t>
         </is>
       </c>
+      <c r="C290" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -3924,6 +4796,9 @@
           <t>70-392</t>
         </is>
       </c>
+      <c r="C291" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -3936,6 +4811,9 @@
           <t>70-393</t>
         </is>
       </c>
+      <c r="C292" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -3948,6 +4826,9 @@
           <t>70-394</t>
         </is>
       </c>
+      <c r="C293" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -3960,6 +4841,9 @@
           <t>70-395</t>
         </is>
       </c>
+      <c r="C294" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -3972,6 +4856,9 @@
           <t>70-396</t>
         </is>
       </c>
+      <c r="C295" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -3984,6 +4871,9 @@
           <t>70-397</t>
         </is>
       </c>
+      <c r="C296" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -3996,6 +4886,9 @@
           <t>70-398</t>
         </is>
       </c>
+      <c r="C297" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -4008,6 +4901,9 @@
           <t>70-399</t>
         </is>
       </c>
+      <c r="C298" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -4020,6 +4916,9 @@
           <t>70-400</t>
         </is>
       </c>
+      <c r="C299" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -4032,6 +4931,9 @@
           <t>70-401</t>
         </is>
       </c>
+      <c r="C300" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -4044,6 +4946,9 @@
           <t>70-402</t>
         </is>
       </c>
+      <c r="C301" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -4056,6 +4961,9 @@
           <t>70-403</t>
         </is>
       </c>
+      <c r="C302" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -4068,6 +4976,9 @@
           <t>70-404</t>
         </is>
       </c>
+      <c r="C303" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -4080,6 +4991,9 @@
           <t>70-405</t>
         </is>
       </c>
+      <c r="C304" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -4092,6 +5006,9 @@
           <t>70-406</t>
         </is>
       </c>
+      <c r="C305" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -4104,6 +5021,9 @@
           <t>70-407</t>
         </is>
       </c>
+      <c r="C306" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -4116,6 +5036,9 @@
           <t>70-408</t>
         </is>
       </c>
+      <c r="C307" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -4128,6 +5051,9 @@
           <t>70-409</t>
         </is>
       </c>
+      <c r="C308" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -4140,6 +5066,9 @@
           <t>70-410</t>
         </is>
       </c>
+      <c r="C309" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -4152,6 +5081,9 @@
           <t>70-411</t>
         </is>
       </c>
+      <c r="C310" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -4164,6 +5096,9 @@
           <t>70-412</t>
         </is>
       </c>
+      <c r="C311" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -4176,6 +5111,9 @@
           <t>70-413</t>
         </is>
       </c>
+      <c r="C312" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -4188,6 +5126,9 @@
           <t>70-414</t>
         </is>
       </c>
+      <c r="C313" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -4200,6 +5141,9 @@
           <t>70-415</t>
         </is>
       </c>
+      <c r="C314" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -4212,6 +5156,9 @@
           <t>70-416</t>
         </is>
       </c>
+      <c r="C315" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -4224,6 +5171,9 @@
           <t>70-417</t>
         </is>
       </c>
+      <c r="C316" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -4236,6 +5186,9 @@
           <t>70-418</t>
         </is>
       </c>
+      <c r="C317" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -4248,6 +5201,9 @@
           <t>70-419</t>
         </is>
       </c>
+      <c r="C318" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -4260,6 +5216,9 @@
           <t>70-420</t>
         </is>
       </c>
+      <c r="C319" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -4272,6 +5231,9 @@
           <t>70-421</t>
         </is>
       </c>
+      <c r="C320" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -4284,6 +5246,9 @@
           <t>70-422</t>
         </is>
       </c>
+      <c r="C321" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -4296,6 +5261,9 @@
           <t>70-423</t>
         </is>
       </c>
+      <c r="C322" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -4308,6 +5276,9 @@
           <t>70-424</t>
         </is>
       </c>
+      <c r="C323" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -4320,6 +5291,9 @@
           <t>70-425</t>
         </is>
       </c>
+      <c r="C324" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -4332,6 +5306,9 @@
           <t>70-426</t>
         </is>
       </c>
+      <c r="C325" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -4344,6 +5321,9 @@
           <t>70-427</t>
         </is>
       </c>
+      <c r="C326" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -4356,6 +5336,9 @@
           <t>70-428</t>
         </is>
       </c>
+      <c r="C327" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -4368,6 +5351,9 @@
           <t>70-429</t>
         </is>
       </c>
+      <c r="C328" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -4380,6 +5366,9 @@
           <t>70-430</t>
         </is>
       </c>
+      <c r="C329" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -4392,6 +5381,9 @@
           <t>70-431</t>
         </is>
       </c>
+      <c r="C330" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -4404,6 +5396,9 @@
           <t>70-432</t>
         </is>
       </c>
+      <c r="C331" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -4416,6 +5411,9 @@
           <t>70-433</t>
         </is>
       </c>
+      <c r="C332" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -4428,6 +5426,9 @@
           <t>70-434</t>
         </is>
       </c>
+      <c r="C333" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -4440,6 +5441,9 @@
           <t>70-435</t>
         </is>
       </c>
+      <c r="C334" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -4452,6 +5456,9 @@
           <t>70-436</t>
         </is>
       </c>
+      <c r="C335" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -4464,6 +5471,9 @@
           <t>70-437</t>
         </is>
       </c>
+      <c r="C336" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -4476,6 +5486,9 @@
           <t>70-438</t>
         </is>
       </c>
+      <c r="C337" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -4488,6 +5501,9 @@
           <t>70-439</t>
         </is>
       </c>
+      <c r="C338" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -4500,6 +5516,9 @@
           <t>70-440</t>
         </is>
       </c>
+      <c r="C339" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -4512,6 +5531,9 @@
           <t>70-441</t>
         </is>
       </c>
+      <c r="C340" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -4524,6 +5546,9 @@
           <t>70-442</t>
         </is>
       </c>
+      <c r="C341" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -4536,6 +5561,9 @@
           <t>70-443</t>
         </is>
       </c>
+      <c r="C342" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -4548,6 +5576,9 @@
           <t>70-444</t>
         </is>
       </c>
+      <c r="C343" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -4560,6 +5591,9 @@
           <t>70-445</t>
         </is>
       </c>
+      <c r="C344" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -4572,6 +5606,9 @@
           <t>70-446</t>
         </is>
       </c>
+      <c r="C345" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -4584,6 +5621,9 @@
           <t>70-447</t>
         </is>
       </c>
+      <c r="C346" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -4596,6 +5636,9 @@
           <t>70-448</t>
         </is>
       </c>
+      <c r="C347" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -4608,6 +5651,9 @@
           <t>70-449</t>
         </is>
       </c>
+      <c r="C348" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -4620,6 +5666,9 @@
           <t>70-450</t>
         </is>
       </c>
+      <c r="C349" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -4632,6 +5681,9 @@
           <t>70-451</t>
         </is>
       </c>
+      <c r="C350" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -4644,6 +5696,9 @@
           <t>70-452</t>
         </is>
       </c>
+      <c r="C351" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -4656,6 +5711,9 @@
           <t>70-453</t>
         </is>
       </c>
+      <c r="C352" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -4668,6 +5726,9 @@
           <t>70-454</t>
         </is>
       </c>
+      <c r="C353" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -4680,6 +5741,9 @@
           <t>70-455</t>
         </is>
       </c>
+      <c r="C354" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -4692,6 +5756,9 @@
           <t>70-456</t>
         </is>
       </c>
+      <c r="C355" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -4704,6 +5771,9 @@
           <t>70-457</t>
         </is>
       </c>
+      <c r="C356" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -4716,6 +5786,9 @@
           <t>70-458</t>
         </is>
       </c>
+      <c r="C357" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -4728,6 +5801,9 @@
           <t>70-459</t>
         </is>
       </c>
+      <c r="C358" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -4740,6 +5816,9 @@
           <t>70-460</t>
         </is>
       </c>
+      <c r="C359" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -4752,6 +5831,9 @@
           <t>70-461</t>
         </is>
       </c>
+      <c r="C360" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -4764,6 +5846,9 @@
           <t>70-462</t>
         </is>
       </c>
+      <c r="C361" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -4776,6 +5861,9 @@
           <t>70-463</t>
         </is>
       </c>
+      <c r="C362" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -4788,6 +5876,9 @@
           <t>70-464</t>
         </is>
       </c>
+      <c r="C363" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -4800,6 +5891,9 @@
           <t>70-465</t>
         </is>
       </c>
+      <c r="C364" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -4812,6 +5906,9 @@
           <t>70-466</t>
         </is>
       </c>
+      <c r="C365" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -4824,6 +5921,9 @@
           <t>70-467</t>
         </is>
       </c>
+      <c r="C366" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -4836,6 +5936,9 @@
           <t>70-468</t>
         </is>
       </c>
+      <c r="C367" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -4848,6 +5951,9 @@
           <t>70-469</t>
         </is>
       </c>
+      <c r="C368" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -4860,6 +5966,9 @@
           <t>70-470</t>
         </is>
       </c>
+      <c r="C369" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -4872,6 +5981,9 @@
           <t>70-471</t>
         </is>
       </c>
+      <c r="C370" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -4884,6 +5996,9 @@
           <t>70-472</t>
         </is>
       </c>
+      <c r="C371" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -4896,6 +6011,9 @@
           <t>70-473</t>
         </is>
       </c>
+      <c r="C372" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -4908,6 +6026,9 @@
           <t>70-474</t>
         </is>
       </c>
+      <c r="C373" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -4920,6 +6041,9 @@
           <t>70-475</t>
         </is>
       </c>
+      <c r="C374" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -4932,6 +6056,9 @@
           <t>70-476</t>
         </is>
       </c>
+      <c r="C375" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -4944,6 +6071,9 @@
           <t>70-477</t>
         </is>
       </c>
+      <c r="C376" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -4956,6 +6086,9 @@
           <t>70-478</t>
         </is>
       </c>
+      <c r="C377" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -4968,6 +6101,9 @@
           <t>70-479</t>
         </is>
       </c>
+      <c r="C378" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -4980,6 +6116,9 @@
           <t>70-480</t>
         </is>
       </c>
+      <c r="C379" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -4992,6 +6131,9 @@
           <t>70-481</t>
         </is>
       </c>
+      <c r="C380" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -5004,6 +6146,9 @@
           <t>70-482</t>
         </is>
       </c>
+      <c r="C381" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -5016,6 +6161,9 @@
           <t>70-483</t>
         </is>
       </c>
+      <c r="C382" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -5028,6 +6176,9 @@
           <t>70-484</t>
         </is>
       </c>
+      <c r="C383" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -5040,6 +6191,9 @@
           <t>70-485</t>
         </is>
       </c>
+      <c r="C384" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -5052,6 +6206,9 @@
           <t>70-486</t>
         </is>
       </c>
+      <c r="C385" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -5064,6 +6221,9 @@
           <t>70-487</t>
         </is>
       </c>
+      <c r="C386" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -5076,6 +6236,9 @@
           <t>70-488</t>
         </is>
       </c>
+      <c r="C387" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -5088,6 +6251,9 @@
           <t>70-489</t>
         </is>
       </c>
+      <c r="C388" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -5100,6 +6266,9 @@
           <t>70-490</t>
         </is>
       </c>
+      <c r="C389" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -5112,6 +6281,9 @@
           <t>70-491</t>
         </is>
       </c>
+      <c r="C390" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -5124,6 +6296,9 @@
           <t>70-492</t>
         </is>
       </c>
+      <c r="C391" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -5136,6 +6311,9 @@
           <t>70-493</t>
         </is>
       </c>
+      <c r="C392" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -5148,6 +6326,9 @@
           <t>70-494</t>
         </is>
       </c>
+      <c r="C393" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -5160,6 +6341,9 @@
           <t>70-495</t>
         </is>
       </c>
+      <c r="C394" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -5172,6 +6356,9 @@
           <t>70-496</t>
         </is>
       </c>
+      <c r="C395" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -5184,6 +6371,9 @@
           <t>70-497</t>
         </is>
       </c>
+      <c r="C396" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -5196,6 +6386,9 @@
           <t>70-498</t>
         </is>
       </c>
+      <c r="C397" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -5208,6 +6401,9 @@
           <t>73-300</t>
         </is>
       </c>
+      <c r="C398" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -5220,6 +6416,9 @@
           <t>73-301</t>
         </is>
       </c>
+      <c r="C399" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -5232,6 +6431,9 @@
           <t>73-302</t>
         </is>
       </c>
+      <c r="C400" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -5244,6 +6446,9 @@
           <t>73-303</t>
         </is>
       </c>
+      <c r="C401" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -5256,6 +6461,9 @@
           <t>73-304</t>
         </is>
       </c>
+      <c r="C402" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -5268,6 +6476,9 @@
           <t>73-305</t>
         </is>
       </c>
+      <c r="C403" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -5280,6 +6491,9 @@
           <t>73-306</t>
         </is>
       </c>
+      <c r="C404" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -5292,6 +6506,9 @@
           <t>73-307</t>
         </is>
       </c>
+      <c r="C405" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -5304,6 +6521,9 @@
           <t>73-308</t>
         </is>
       </c>
+      <c r="C406" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -5316,6 +6536,9 @@
           <t>73-309</t>
         </is>
       </c>
+      <c r="C407" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -5328,6 +6551,9 @@
           <t>73-310</t>
         </is>
       </c>
+      <c r="C408" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -5340,6 +6566,9 @@
           <t>73-311</t>
         </is>
       </c>
+      <c r="C409" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -5352,6 +6581,9 @@
           <t>73-312</t>
         </is>
       </c>
+      <c r="C410" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -5364,6 +6596,9 @@
           <t>73-313</t>
         </is>
       </c>
+      <c r="C411" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -5376,6 +6611,9 @@
           <t>73-314</t>
         </is>
       </c>
+      <c r="C412" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -5388,6 +6626,9 @@
           <t>73-315</t>
         </is>
       </c>
+      <c r="C413" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -5400,6 +6641,9 @@
           <t>73-316</t>
         </is>
       </c>
+      <c r="C414" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -5412,6 +6656,9 @@
           <t>73-317</t>
         </is>
       </c>
+      <c r="C415" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -5424,6 +6671,9 @@
           <t>73-318</t>
         </is>
       </c>
+      <c r="C416" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -5436,6 +6686,9 @@
           <t>73-319</t>
         </is>
       </c>
+      <c r="C417" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -5448,6 +6701,9 @@
           <t>73-320</t>
         </is>
       </c>
+      <c r="C418" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -5460,6 +6716,9 @@
           <t>73-321</t>
         </is>
       </c>
+      <c r="C419" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -5472,6 +6731,9 @@
           <t>73-322</t>
         </is>
       </c>
+      <c r="C420" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -5484,6 +6746,9 @@
           <t>73-323</t>
         </is>
       </c>
+      <c r="C421" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -5496,6 +6761,9 @@
           <t>73-324</t>
         </is>
       </c>
+      <c r="C422" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -5508,6 +6776,9 @@
           <t>73-325</t>
         </is>
       </c>
+      <c r="C423" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -5520,6 +6791,9 @@
           <t>73-326</t>
         </is>
       </c>
+      <c r="C424" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -5532,6 +6806,9 @@
           <t>73-327</t>
         </is>
       </c>
+      <c r="C425" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -5544,6 +6821,9 @@
           <t>73-328</t>
         </is>
       </c>
+      <c r="C426" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -5556,6 +6836,9 @@
           <t>73-329</t>
         </is>
       </c>
+      <c r="C427" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -5568,6 +6851,9 @@
           <t>73-330</t>
         </is>
       </c>
+      <c r="C428" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -5580,6 +6866,9 @@
           <t>73-331</t>
         </is>
       </c>
+      <c r="C429" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -5592,6 +6881,9 @@
           <t>73-332</t>
         </is>
       </c>
+      <c r="C430" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -5604,6 +6896,9 @@
           <t>73-333</t>
         </is>
       </c>
+      <c r="C431" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -5616,6 +6911,9 @@
           <t>73-334</t>
         </is>
       </c>
+      <c r="C432" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -5628,6 +6926,9 @@
           <t>73-335</t>
         </is>
       </c>
+      <c r="C433" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -5640,6 +6941,9 @@
           <t>73-336</t>
         </is>
       </c>
+      <c r="C434" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -5652,6 +6956,9 @@
           <t>73-337</t>
         </is>
       </c>
+      <c r="C435" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -5664,6 +6971,9 @@
           <t>73-338</t>
         </is>
       </c>
+      <c r="C436" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -5676,6 +6986,9 @@
           <t>73-339</t>
         </is>
       </c>
+      <c r="C437" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -5688,6 +7001,9 @@
           <t>73-340</t>
         </is>
       </c>
+      <c r="C438" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -5700,6 +7016,9 @@
           <t>73-341</t>
         </is>
       </c>
+      <c r="C439" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -5712,6 +7031,9 @@
           <t>73-342</t>
         </is>
       </c>
+      <c r="C440" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -5724,6 +7046,9 @@
           <t>73-343</t>
         </is>
       </c>
+      <c r="C441" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -5736,6 +7061,9 @@
           <t>73-344</t>
         </is>
       </c>
+      <c r="C442" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -5748,6 +7076,9 @@
           <t>73-345</t>
         </is>
       </c>
+      <c r="C443" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -5760,6 +7091,9 @@
           <t>73-346</t>
         </is>
       </c>
+      <c r="C444" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -5772,6 +7106,9 @@
           <t>73-347</t>
         </is>
       </c>
+      <c r="C445" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -5784,6 +7121,9 @@
           <t>73-348</t>
         </is>
       </c>
+      <c r="C446" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -5796,6 +7136,9 @@
           <t>73-349</t>
         </is>
       </c>
+      <c r="C447" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -5808,6 +7151,9 @@
           <t>73-350</t>
         </is>
       </c>
+      <c r="C448" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -5820,6 +7166,9 @@
           <t>73-351</t>
         </is>
       </c>
+      <c r="C449" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -5832,6 +7181,9 @@
           <t>73-352</t>
         </is>
       </c>
+      <c r="C450" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -5844,6 +7196,9 @@
           <t>73-353</t>
         </is>
       </c>
+      <c r="C451" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -5856,6 +7211,9 @@
           <t>73-354</t>
         </is>
       </c>
+      <c r="C452" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -5868,6 +7226,9 @@
           <t>73-355</t>
         </is>
       </c>
+      <c r="C453" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -5880,6 +7241,9 @@
           <t>73-356</t>
         </is>
       </c>
+      <c r="C454" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -5892,6 +7256,9 @@
           <t>73-357</t>
         </is>
       </c>
+      <c r="C455" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -5904,6 +7271,9 @@
           <t>73-358</t>
         </is>
       </c>
+      <c r="C456" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -5916,6 +7286,9 @@
           <t>73-359</t>
         </is>
       </c>
+      <c r="C457" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -5928,6 +7301,9 @@
           <t>73-360</t>
         </is>
       </c>
+      <c r="C458" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -5940,6 +7316,9 @@
           <t>73-361</t>
         </is>
       </c>
+      <c r="C459" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -5952,6 +7331,9 @@
           <t>73-362</t>
         </is>
       </c>
+      <c r="C460" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -5964,6 +7346,9 @@
           <t>73-363</t>
         </is>
       </c>
+      <c r="C461" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -5976,6 +7361,9 @@
           <t>73-364</t>
         </is>
       </c>
+      <c r="C462" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -5988,6 +7376,9 @@
           <t>73-365</t>
         </is>
       </c>
+      <c r="C463" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -6000,6 +7391,9 @@
           <t>73-366</t>
         </is>
       </c>
+      <c r="C464" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -6012,6 +7406,9 @@
           <t>73-367</t>
         </is>
       </c>
+      <c r="C465" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -6024,6 +7421,9 @@
           <t>73-368</t>
         </is>
       </c>
+      <c r="C466" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -6036,6 +7436,9 @@
           <t>73-369</t>
         </is>
       </c>
+      <c r="C467" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -6048,6 +7451,9 @@
           <t>73-370</t>
         </is>
       </c>
+      <c r="C468" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -6060,6 +7466,9 @@
           <t>73-371</t>
         </is>
       </c>
+      <c r="C469" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -6072,6 +7481,9 @@
           <t>73-372</t>
         </is>
       </c>
+      <c r="C470" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -6084,6 +7496,9 @@
           <t>73-373</t>
         </is>
       </c>
+      <c r="C471" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -6096,6 +7511,9 @@
           <t>73-374</t>
         </is>
       </c>
+      <c r="C472" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -6108,6 +7526,9 @@
           <t>73-375</t>
         </is>
       </c>
+      <c r="C473" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -6120,6 +7541,9 @@
           <t>73-376</t>
         </is>
       </c>
+      <c r="C474" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -6132,6 +7556,9 @@
           <t>73-377</t>
         </is>
       </c>
+      <c r="C475" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -6144,6 +7571,9 @@
           <t>73-378</t>
         </is>
       </c>
+      <c r="C476" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -6156,6 +7586,9 @@
           <t>73-379</t>
         </is>
       </c>
+      <c r="C477" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -6168,6 +7601,9 @@
           <t>73-380</t>
         </is>
       </c>
+      <c r="C478" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -6180,6 +7616,9 @@
           <t>73-381</t>
         </is>
       </c>
+      <c r="C479" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -6192,6 +7631,9 @@
           <t>73-382</t>
         </is>
       </c>
+      <c r="C480" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -6204,6 +7646,9 @@
           <t>73-383</t>
         </is>
       </c>
+      <c r="C481" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -6216,6 +7661,9 @@
           <t>73-384</t>
         </is>
       </c>
+      <c r="C482" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -6228,6 +7676,9 @@
           <t>73-385</t>
         </is>
       </c>
+      <c r="C483" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -6240,6 +7691,9 @@
           <t>73-386</t>
         </is>
       </c>
+      <c r="C484" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -6252,6 +7706,9 @@
           <t>73-387</t>
         </is>
       </c>
+      <c r="C485" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -6264,6 +7721,9 @@
           <t>73-388</t>
         </is>
       </c>
+      <c r="C486" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -6276,6 +7736,9 @@
           <t>73-389</t>
         </is>
       </c>
+      <c r="C487" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -6288,6 +7751,9 @@
           <t>73-390</t>
         </is>
       </c>
+      <c r="C488" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -6300,6 +7766,9 @@
           <t>73-391</t>
         </is>
       </c>
+      <c r="C489" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -6312,6 +7781,9 @@
           <t>73-392</t>
         </is>
       </c>
+      <c r="C490" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -6324,6 +7796,9 @@
           <t>73-393</t>
         </is>
       </c>
+      <c r="C491" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -6336,6 +7811,9 @@
           <t>73-394</t>
         </is>
       </c>
+      <c r="C492" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -6348,6 +7826,9 @@
           <t>73-395</t>
         </is>
       </c>
+      <c r="C493" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -6360,6 +7841,9 @@
           <t>73-396</t>
         </is>
       </c>
+      <c r="C494" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -6372,6 +7856,9 @@
           <t>73-397</t>
         </is>
       </c>
+      <c r="C495" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -6384,6 +7871,9 @@
           <t>73-398</t>
         </is>
       </c>
+      <c r="C496" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -6396,6 +7886,9 @@
           <t>73-399</t>
         </is>
       </c>
+      <c r="C497" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -6408,6 +7901,9 @@
           <t>73-400</t>
         </is>
       </c>
+      <c r="C498" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -6420,6 +7916,9 @@
           <t>73-401</t>
         </is>
       </c>
+      <c r="C499" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -6432,6 +7931,9 @@
           <t>73-402</t>
         </is>
       </c>
+      <c r="C500" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -6444,6 +7946,9 @@
           <t>73-403</t>
         </is>
       </c>
+      <c r="C501" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -6456,6 +7961,9 @@
           <t>73-404</t>
         </is>
       </c>
+      <c r="C502" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -6468,6 +7976,9 @@
           <t>73-405</t>
         </is>
       </c>
+      <c r="C503" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -6480,6 +7991,9 @@
           <t>73-406</t>
         </is>
       </c>
+      <c r="C504" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -6492,6 +8006,9 @@
           <t>73-407</t>
         </is>
       </c>
+      <c r="C505" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -6504,6 +8021,9 @@
           <t>73-408</t>
         </is>
       </c>
+      <c r="C506" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -6516,6 +8036,9 @@
           <t>73-409</t>
         </is>
       </c>
+      <c r="C507" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -6528,6 +8051,9 @@
           <t>73-410</t>
         </is>
       </c>
+      <c r="C508" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -6540,6 +8066,9 @@
           <t>73-411</t>
         </is>
       </c>
+      <c r="C509" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -6552,6 +8081,9 @@
           <t>73-412</t>
         </is>
       </c>
+      <c r="C510" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -6564,6 +8096,9 @@
           <t>73-413</t>
         </is>
       </c>
+      <c r="C511" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -6576,6 +8111,9 @@
           <t>73-414</t>
         </is>
       </c>
+      <c r="C512" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -6588,6 +8126,9 @@
           <t>73-415</t>
         </is>
       </c>
+      <c r="C513" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -6600,6 +8141,9 @@
           <t>73-416</t>
         </is>
       </c>
+      <c r="C514" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -6612,6 +8156,9 @@
           <t>73-417</t>
         </is>
       </c>
+      <c r="C515" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -6624,6 +8171,9 @@
           <t>73-418</t>
         </is>
       </c>
+      <c r="C516" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -6636,6 +8186,9 @@
           <t>73-419</t>
         </is>
       </c>
+      <c r="C517" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -6648,6 +8201,9 @@
           <t>73-420</t>
         </is>
       </c>
+      <c r="C518" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -6660,6 +8216,9 @@
           <t>73-421</t>
         </is>
       </c>
+      <c r="C519" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -6672,6 +8231,9 @@
           <t>73-422</t>
         </is>
       </c>
+      <c r="C520" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -6684,6 +8246,9 @@
           <t>73-423</t>
         </is>
       </c>
+      <c r="C521" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -6696,6 +8261,9 @@
           <t>73-424</t>
         </is>
       </c>
+      <c r="C522" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -6708,6 +8276,9 @@
           <t>73-425</t>
         </is>
       </c>
+      <c r="C523" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -6720,6 +8291,9 @@
           <t>73-426</t>
         </is>
       </c>
+      <c r="C524" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -6732,6 +8306,9 @@
           <t>73-427</t>
         </is>
       </c>
+      <c r="C525" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -6744,6 +8321,9 @@
           <t>73-428</t>
         </is>
       </c>
+      <c r="C526" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -6756,6 +8336,9 @@
           <t>73-429</t>
         </is>
       </c>
+      <c r="C527" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -6768,6 +8351,9 @@
           <t>73-430</t>
         </is>
       </c>
+      <c r="C528" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -6780,6 +8366,9 @@
           <t>73-431</t>
         </is>
       </c>
+      <c r="C529" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -6792,6 +8381,9 @@
           <t>73-432</t>
         </is>
       </c>
+      <c r="C530" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -6804,6 +8396,9 @@
           <t>73-433</t>
         </is>
       </c>
+      <c r="C531" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -6816,6 +8411,9 @@
           <t>73-434</t>
         </is>
       </c>
+      <c r="C532" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -6828,6 +8426,9 @@
           <t>73-435</t>
         </is>
       </c>
+      <c r="C533" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -6840,6 +8441,9 @@
           <t>73-436</t>
         </is>
       </c>
+      <c r="C534" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -6852,6 +8456,9 @@
           <t>73-437</t>
         </is>
       </c>
+      <c r="C535" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -6864,6 +8471,9 @@
           <t>73-438</t>
         </is>
       </c>
+      <c r="C536" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -6876,6 +8486,9 @@
           <t>73-439</t>
         </is>
       </c>
+      <c r="C537" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -6888,6 +8501,9 @@
           <t>73-440</t>
         </is>
       </c>
+      <c r="C538" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -6900,6 +8516,9 @@
           <t>73-441</t>
         </is>
       </c>
+      <c r="C539" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -6912,6 +8531,9 @@
           <t>73-442</t>
         </is>
       </c>
+      <c r="C540" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -6924,6 +8546,9 @@
           <t>73-443</t>
         </is>
       </c>
+      <c r="C541" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -6936,6 +8561,9 @@
           <t>73-444</t>
         </is>
       </c>
+      <c r="C542" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -6948,6 +8576,9 @@
           <t>73-445</t>
         </is>
       </c>
+      <c r="C543" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -6960,6 +8591,9 @@
           <t>73-446</t>
         </is>
       </c>
+      <c r="C544" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -6972,6 +8606,9 @@
           <t>73-447</t>
         </is>
       </c>
+      <c r="C545" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -6984,6 +8621,9 @@
           <t>73-448</t>
         </is>
       </c>
+      <c r="C546" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -6996,6 +8636,9 @@
           <t>73-449</t>
         </is>
       </c>
+      <c r="C547" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -7008,6 +8651,9 @@
           <t>73-450</t>
         </is>
       </c>
+      <c r="C548" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -7020,6 +8666,9 @@
           <t>73-451</t>
         </is>
       </c>
+      <c r="C549" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -7032,6 +8681,9 @@
           <t>73-452</t>
         </is>
       </c>
+      <c r="C550" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -7044,6 +8696,9 @@
           <t>73-453</t>
         </is>
       </c>
+      <c r="C551" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -7056,6 +8711,9 @@
           <t>73-454</t>
         </is>
       </c>
+      <c r="C552" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -7068,6 +8726,9 @@
           <t>73-455</t>
         </is>
       </c>
+      <c r="C553" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -7080,6 +8741,9 @@
           <t>73-456</t>
         </is>
       </c>
+      <c r="C554" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -7092,6 +8756,9 @@
           <t>73-457</t>
         </is>
       </c>
+      <c r="C555" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -7104,6 +8771,9 @@
           <t>73-458</t>
         </is>
       </c>
+      <c r="C556" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -7116,6 +8786,9 @@
           <t>73-459</t>
         </is>
       </c>
+      <c r="C557" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -7128,6 +8801,9 @@
           <t>73-460</t>
         </is>
       </c>
+      <c r="C558" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -7140,6 +8816,9 @@
           <t>73-461</t>
         </is>
       </c>
+      <c r="C559" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -7152,6 +8831,9 @@
           <t>73-462</t>
         </is>
       </c>
+      <c r="C560" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -7164,6 +8846,9 @@
           <t>73-463</t>
         </is>
       </c>
+      <c r="C561" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -7176,6 +8861,9 @@
           <t>73-464</t>
         </is>
       </c>
+      <c r="C562" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -7188,6 +8876,9 @@
           <t>73-465</t>
         </is>
       </c>
+      <c r="C563" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -7200,6 +8891,9 @@
           <t>73-466</t>
         </is>
       </c>
+      <c r="C564" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -7212,6 +8906,9 @@
           <t>73-467</t>
         </is>
       </c>
+      <c r="C565" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -7224,6 +8921,9 @@
           <t>73-468</t>
         </is>
       </c>
+      <c r="C566" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -7236,6 +8936,9 @@
           <t>73-469</t>
         </is>
       </c>
+      <c r="C567" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -7248,6 +8951,9 @@
           <t>73-470</t>
         </is>
       </c>
+      <c r="C568" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -7260,6 +8966,9 @@
           <t>73-471</t>
         </is>
       </c>
+      <c r="C569" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -7272,6 +8981,9 @@
           <t>73-472</t>
         </is>
       </c>
+      <c r="C570" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -7284,6 +8996,9 @@
           <t>73-473</t>
         </is>
       </c>
+      <c r="C571" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -7296,6 +9011,9 @@
           <t>73-474</t>
         </is>
       </c>
+      <c r="C572" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -7308,6 +9026,9 @@
           <t>73-475</t>
         </is>
       </c>
+      <c r="C573" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -7320,6 +9041,9 @@
           <t>73-476</t>
         </is>
       </c>
+      <c r="C574" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -7332,6 +9056,9 @@
           <t>73-477</t>
         </is>
       </c>
+      <c r="C575" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -7344,6 +9071,9 @@
           <t>73-478</t>
         </is>
       </c>
+      <c r="C576" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -7356,6 +9086,9 @@
           <t>73-479</t>
         </is>
       </c>
+      <c r="C577" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -7368,6 +9101,9 @@
           <t>73-480</t>
         </is>
       </c>
+      <c r="C578" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -7380,6 +9116,9 @@
           <t>73-481</t>
         </is>
       </c>
+      <c r="C579" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -7392,6 +9131,9 @@
           <t>73-482</t>
         </is>
       </c>
+      <c r="C580" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -7404,6 +9146,9 @@
           <t>73-483</t>
         </is>
       </c>
+      <c r="C581" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -7416,6 +9161,9 @@
           <t>73-484</t>
         </is>
       </c>
+      <c r="C582" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -7428,6 +9176,9 @@
           <t>73-485</t>
         </is>
       </c>
+      <c r="C583" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -7440,6 +9191,9 @@
           <t>73-486</t>
         </is>
       </c>
+      <c r="C584" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -7452,6 +9206,9 @@
           <t>73-487</t>
         </is>
       </c>
+      <c r="C585" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -7464,6 +9221,9 @@
           <t>73-488</t>
         </is>
       </c>
+      <c r="C586" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -7476,6 +9236,9 @@
           <t>73-489</t>
         </is>
       </c>
+      <c r="C587" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -7488,6 +9251,9 @@
           <t>73-490</t>
         </is>
       </c>
+      <c r="C588" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -7500,6 +9266,9 @@
           <t>73-491</t>
         </is>
       </c>
+      <c r="C589" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -7512,6 +9281,9 @@
           <t>73-492</t>
         </is>
       </c>
+      <c r="C590" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -7524,6 +9296,9 @@
           <t>73-493</t>
         </is>
       </c>
+      <c r="C591" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -7536,6 +9311,9 @@
           <t>73-494</t>
         </is>
       </c>
+      <c r="C592" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -7548,6 +9326,9 @@
           <t>73-495</t>
         </is>
       </c>
+      <c r="C593" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -7560,6 +9341,9 @@
           <t>73-496</t>
         </is>
       </c>
+      <c r="C594" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -7572,6 +9356,9 @@
           <t>73-497</t>
         </is>
       </c>
+      <c r="C595" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -7584,6 +9371,9 @@
           <t>73-498</t>
         </is>
       </c>
+      <c r="C596" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -7596,6 +9386,9 @@
           <t>73-499</t>
         </is>
       </c>
+      <c r="C597" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -7608,6 +9401,9 @@
           <t>99-101</t>
         </is>
       </c>
+      <c r="C598" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -7619,6 +9415,9 @@
         <is>
           <t>99-102</t>
         </is>
+      </c>
+      <c r="C599" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/data/audit/ba/ba_core.xlsx
+++ b/data/audit/ba/ba_core.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -918,7 +918,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Accounting---Required Courses</t>
+          <t>BS in Business Administration---Concentration---Accounting---Accounting Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -933,7 +933,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Accounting---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Accounting---Accounting Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -942,13 +942,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Accounting---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Accounting---Accounting Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -963,7 +963,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Accounting---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Accounting---Accounting Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -978,7 +978,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Accounting---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Accounting---Accounting Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -993,7 +993,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Required Courses</t>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Business Analytics and Technologies Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Required Courses</t>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Business Analytics and Technologies Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Business Analytics and Technologies Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Business Analytics and Technologies Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1053,7 +1053,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Business Analytics and Technologies Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1068,7 +1068,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Business Analytics and Technologies Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Business Analytics and Technologies Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Business Analytics and Technologies Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Business Analytics and Technologies Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1128,7 +1128,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Business Analytics and Technologies Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1143,7 +1143,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Business Analytics and Technologies Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1158,7 +1158,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Business Analytics &amp; Technologies---Business Analytics and Technologies Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1173,7 +1173,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Entrepreneurship---Required Courses</t>
+          <t>BS in Business Administration---Concentration---Entrepreneurship---Entrepreneurship Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1188,7 +1188,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Entrepreneurship---Required Courses</t>
+          <t>BS in Business Administration---Concentration---Entrepreneurship---Entrepreneurship Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1203,7 +1203,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Entrepreneurship---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Entrepreneurship---Entrepreneurship Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1212,13 +1212,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Entrepreneurship---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Entrepreneurship---Entrepreneurship Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Entrepreneurship---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Entrepreneurship---Entrepreneurship Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1248,7 +1248,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Entrepreneurship---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Entrepreneurship---Entrepreneurship Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1263,7 +1263,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Entrepreneurship---Entrepreneurship Concentration---Area Electives---Independent Study - Special Permission Required</t>
+          <t>BS in Business Administration---Entrepreneurship---Entrepreneurship Concentration---Two Area Electives---Independent Study - Special Permission Required</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1278,7 +1278,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Required Courses</t>
+          <t>BS in Business Administration---Concentration---Finance---Finance Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1293,7 +1293,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Required Courses</t>
+          <t>BS in Business Administration---Concentration---Finance---Finance Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1308,7 +1308,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Finance---Finance Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1323,7 +1323,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Finance---Finance Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1338,7 +1338,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Finance---Finance Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Finance---Finance Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Finance---Finance Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Finance---Finance Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1398,7 +1398,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Finance---Finance Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Finance---Finance Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Finance---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Finance---Finance Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1443,7 +1443,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Required Courses</t>
+          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1458,7 +1458,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Required Courses</t>
+          <t>BS in Business Administration---Global Economics &amp; Business---Global Economics and Business Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Required Courses</t>
+          <t>BS in Business Administration---Global Economics &amp; Business---Global Economics and Business Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1482,13 +1482,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1503,7 +1503,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1533,7 +1533,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1548,7 +1548,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1563,7 +1563,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1578,7 +1578,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Global Economics &amp; Business---Global Economics and Business Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1593,7 +1593,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Marketing Management---Required Courses</t>
+          <t>BS in Business Administration---Concentration---Marketing Management---Marketing Management Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Marketing Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Marketing Management---Marketing Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1623,7 +1623,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Marketing Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Marketing Management---Marketing Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1638,7 +1638,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Marketing Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Marketing Management---Marketing Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1653,7 +1653,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Marketing Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Marketing Management---Marketing Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Marketing Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Marketing Management---Marketing Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1683,7 +1683,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Marketing Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Marketing Management---Marketing Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1698,7 +1698,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Operations Management---Required Courses</t>
+          <t>BS in Business Administration---Concentration---Operations Management---Operations Management Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1713,7 +1713,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Operations Management---Required Courses</t>
+          <t>BS in Business Administration---Concentration---Operations Management---Operations Management Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1728,7 +1728,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Operations Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Operations Management---Operations Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1743,7 +1743,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Operations Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Operations Management---Operations Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1752,13 +1752,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Operations Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Operations Management---Operations Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Operations Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Operations Management---Operations Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Operations Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Operations Management---Operations Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1803,7 +1803,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Operations Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Operations Management---Operations Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1818,7 +1818,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Operations Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Operations Management---Operations Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1833,12 +1833,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Strategic Management---Required Courses</t>
+          <t>BS in Business Administration---Concentration---Operations Management---Operations Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>70-437</t>
+          <t>70-453</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1848,12 +1848,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Strategic Management---Required Courses</t>
+          <t>BS in Business Administration---Concentration---Operations Management---Operations Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>70-465</t>
+          <t>70-462</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1863,12 +1863,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Strategic Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Strategic Management---Strategic Management Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>70-341</t>
+          <t>70-437</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1878,12 +1878,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Strategic Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Strategic Management---Strategic Management Concentration---Required Courses</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>70-342</t>
+          <t>70-465</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1893,12 +1893,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Strategic Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Strategic Management---Strategic Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>70-385</t>
+          <t>70-341</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -1908,12 +1908,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Strategic Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Strategic Management---Strategic Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>70-387</t>
+          <t>70-342</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -1923,12 +1923,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Strategic Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Strategic Management---Strategic Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>70-424</t>
+          <t>70-385</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1938,12 +1938,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Strategic Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Strategic Management---Strategic Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>70-437</t>
+          <t>70-387</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -1953,12 +1953,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Strategic Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Strategic Management---Strategic Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>70-440</t>
+          <t>70-424</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -1968,12 +1968,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Concentration---Strategic Management---Area Electives</t>
+          <t>BS in Business Administration---Concentration---Strategic Management---Strategic Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>70-465</t>
+          <t>70-437</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -1983,30 +1983,105 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BS in Business Administration---Core@CMU</t>
+          <t>BS in Business Administration---Concentration---Strategic Management---Strategic Management Concentration---Area Electives</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>99-101</t>
+          <t>70-440</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>BS in Business Administration---Concentration---Strategic Management---Strategic Management Concentration---Area Electives</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>70-465</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Business Electives---Business Electives</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>21-270</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Business Electives---Business Electives</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>70-001</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Business Electives---Business Electives</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>70-002</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>BS in Business Administration---Core@CMU</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>99-101</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>BS in Business Administration---Core@CMU</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>99-102</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="C110" t="n">
         <v>3</v>
       </c>
     </row>
